--- a/TestCasesUKGCommon/martin b.xlsx
+++ b/TestCasesUKGCommon/martin b.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ayahealthcare.sharepoint.com/sites/Team-CostaRica-IT/Shared Documents/Projects/PDF Timesheet Reader - Last Version/QA/UKG - Common/V5/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6150A5532E294848C4D9767FE9E3CA9709204D0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFE62414-5828-4097-9AC5-A181F6C6D4E5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -859,8 +853,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,14 +917,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -977,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1009,27 +995,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,24 +1029,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1254,20 +1204,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -1349,7 +1293,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -1372,7 +1316,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1395,7 +1339,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1356,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1435,7 +1379,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1458,7 +1402,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1481,7 +1425,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1504,7 +1448,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1465,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1544,7 +1488,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1567,7 +1511,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1593,7 +1537,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +1560,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -1639,7 +1583,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1606,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -1685,7 +1629,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -1708,7 +1652,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -1731,7 +1675,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1698,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1721,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1744,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -1823,7 +1767,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1846,7 +1790,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +1813,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1892,7 +1836,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19">
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -1915,7 +1859,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1882,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19">
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -1961,7 +1905,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -1984,7 +1928,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19">
       <c r="B31" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +1951,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19">
       <c r="B32" t="s">
         <v>21</v>
       </c>
@@ -2030,7 +1974,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19">
       <c r="B33" t="s">
         <v>21</v>
       </c>
@@ -2053,7 +1997,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19">
       <c r="B34" t="s">
         <v>21</v>
       </c>
@@ -2076,7 +2020,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19">
       <c r="B35" t="s">
         <v>21</v>
       </c>
@@ -2099,7 +2043,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19">
       <c r="B36" t="s">
         <v>21</v>
       </c>
@@ -2122,7 +2066,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19">
       <c r="B37" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2089,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19">
       <c r="B38" t="s">
         <v>22</v>
       </c>
@@ -2171,7 +2115,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19">
       <c r="B39" t="s">
         <v>22</v>
       </c>
@@ -2197,7 +2141,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19">
       <c r="B40" t="s">
         <v>22</v>
       </c>
@@ -2220,7 +2164,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19">
       <c r="B41" t="s">
         <v>22</v>
       </c>
@@ -2246,7 +2190,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19">
       <c r="B42" t="s">
         <v>22</v>
       </c>
@@ -2269,7 +2213,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19">
       <c r="B43" t="s">
         <v>22</v>
       </c>
@@ -2295,7 +2239,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +2265,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" t="s">
         <v>23</v>
       </c>
@@ -2347,7 +2291,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19">
       <c r="B46" t="s">
         <v>23</v>
       </c>
@@ -2370,7 +2314,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19">
       <c r="B47" t="s">
         <v>23</v>
       </c>
@@ -2393,7 +2337,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19">
       <c r="B48" t="s">
         <v>23</v>
       </c>
@@ -2416,7 +2360,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19">
       <c r="B49" t="s">
         <v>23</v>
       </c>
@@ -2439,7 +2383,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19">
       <c r="B50" t="s">
         <v>23</v>
       </c>
@@ -2465,7 +2409,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19">
       <c r="B51" t="s">
         <v>24</v>
       </c>
@@ -2488,7 +2432,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19">
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -2511,7 +2455,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19">
       <c r="B53" t="s">
         <v>24</v>
       </c>
@@ -2534,7 +2478,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19">
       <c r="B54" t="s">
         <v>24</v>
       </c>
@@ -2560,7 +2504,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19">
       <c r="B55" t="s">
         <v>24</v>
       </c>
@@ -2583,7 +2527,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19">
       <c r="B56" t="s">
         <v>24</v>
       </c>
@@ -2606,7 +2550,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19">
       <c r="B57" t="s">
         <v>24</v>
       </c>
@@ -2629,7 +2573,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19">
       <c r="B58" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2596,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19">
       <c r="B59" t="s">
         <v>25</v>
       </c>
@@ -2675,7 +2619,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19">
       <c r="B60" t="s">
         <v>25</v>
       </c>
@@ -2698,7 +2642,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19">
       <c r="B61" t="s">
         <v>25</v>
       </c>
@@ -2721,7 +2665,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19">
       <c r="B62" t="s">
         <v>25</v>
       </c>
@@ -2744,7 +2688,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19">
       <c r="B63" t="s">
         <v>25</v>
       </c>
@@ -2767,7 +2711,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19">
       <c r="B64" t="s">
         <v>26</v>
       </c>
@@ -2790,7 +2734,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19">
       <c r="B65" t="s">
         <v>26</v>
       </c>
@@ -2813,7 +2757,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:19">
       <c r="B66" t="s">
         <v>26</v>
       </c>
@@ -2839,7 +2783,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19">
       <c r="B67" t="s">
         <v>26</v>
       </c>
@@ -2865,7 +2809,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:19">
       <c r="B68" t="s">
         <v>26</v>
       </c>
@@ -2891,7 +2835,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:19">
       <c r="B69" t="s">
         <v>26</v>
       </c>
@@ -2917,7 +2861,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19">
       <c r="B70" t="s">
         <v>26</v>
       </c>
@@ -2943,7 +2887,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19">
       <c r="B71" t="s">
         <v>27</v>
       </c>
@@ -2966,7 +2910,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19">
       <c r="B72" t="s">
         <v>27</v>
       </c>
@@ -2989,7 +2933,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19">
       <c r="B73" t="s">
         <v>27</v>
       </c>
@@ -3012,7 +2956,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19">
       <c r="B74" t="s">
         <v>27</v>
       </c>
@@ -3035,7 +2979,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19">
       <c r="B75" t="s">
         <v>27</v>
       </c>
@@ -3058,7 +3002,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19">
       <c r="B76" t="s">
         <v>27</v>
       </c>
@@ -3081,7 +3025,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:19">
       <c r="B77" t="s">
         <v>28</v>
       </c>
@@ -3104,7 +3048,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:19">
       <c r="B78" t="s">
         <v>28</v>
       </c>
@@ -3124,7 +3068,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:19">
       <c r="B79" t="s">
         <v>28</v>
       </c>
@@ -3147,7 +3091,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19">
       <c r="B80" t="s">
         <v>28</v>
       </c>
@@ -3167,7 +3111,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:19">
       <c r="B81" t="s">
         <v>28</v>
       </c>
@@ -3190,7 +3134,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:19">
       <c r="B82" t="s">
         <v>28</v>
       </c>
@@ -3213,7 +3157,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:19">
       <c r="B83" t="s">
         <v>28</v>
       </c>
@@ -3233,7 +3177,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:19">
       <c r="B84" t="s">
         <v>28</v>
       </c>
@@ -3256,7 +3200,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:19">
       <c r="B85" t="s">
         <v>28</v>
       </c>
@@ -3279,7 +3223,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:19">
       <c r="B86" t="s">
         <v>28</v>
       </c>
@@ -3302,7 +3246,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:19">
       <c r="B87" t="s">
         <v>28</v>
       </c>
@@ -3322,7 +3266,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:19">
       <c r="B88" t="s">
         <v>28</v>
       </c>
@@ -3345,7 +3289,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:19">
       <c r="B89" t="s">
         <v>28</v>
       </c>
@@ -3368,7 +3312,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:19">
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -3388,7 +3332,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:19">
       <c r="B91" t="s">
         <v>28</v>
       </c>
@@ -3411,7 +3355,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:19">
       <c r="B92" t="s">
         <v>28</v>
       </c>
@@ -3431,7 +3375,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:19">
       <c r="B93" t="s">
         <v>28</v>
       </c>
@@ -3454,7 +3398,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:19">
       <c r="B94" t="s">
         <v>28</v>
       </c>
@@ -3477,7 +3421,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:19">
       <c r="B95" t="s">
         <v>28</v>
       </c>
@@ -3497,7 +3441,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:19">
       <c r="B96" t="s">
         <v>28</v>
       </c>
@@ -3520,7 +3464,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:19">
       <c r="B97" t="s">
         <v>28</v>
       </c>
@@ -3540,7 +3484,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:19">
       <c r="B98" t="s">
         <v>28</v>
       </c>
@@ -3563,7 +3507,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:19">
       <c r="B99" t="s">
         <v>28</v>
       </c>
@@ -3586,7 +3530,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:19">
       <c r="B100" t="s">
         <v>28</v>
       </c>
@@ -3609,7 +3553,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:19">
       <c r="B101" t="s">
         <v>28</v>
       </c>
@@ -3632,7 +3576,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:19">
       <c r="B102" t="s">
         <v>29</v>
       </c>
@@ -3655,7 +3599,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:19">
       <c r="B103" t="s">
         <v>29</v>
       </c>
@@ -3681,7 +3625,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:19">
       <c r="B104" t="s">
         <v>29</v>
       </c>
@@ -3704,7 +3648,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:19">
       <c r="B105" t="s">
         <v>29</v>
       </c>
@@ -3727,7 +3671,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:19">
       <c r="B106" t="s">
         <v>29</v>
       </c>
@@ -3750,7 +3694,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:19">
       <c r="B107" t="s">
         <v>29</v>
       </c>
@@ -3773,7 +3717,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:19">
       <c r="B108" t="s">
         <v>29</v>
       </c>
@@ -3796,7 +3740,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:19">
       <c r="B109" t="s">
         <v>30</v>
       </c>
@@ -3819,7 +3763,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:19">
       <c r="B110" t="s">
         <v>30</v>
       </c>
@@ -3842,7 +3786,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:19">
       <c r="B111" t="s">
         <v>30</v>
       </c>
@@ -3862,7 +3806,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:19">
       <c r="B112" t="s">
         <v>30</v>
       </c>
@@ -3885,7 +3829,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:19">
       <c r="B113" t="s">
         <v>30</v>
       </c>
@@ -3908,7 +3852,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:19">
       <c r="B114" t="s">
         <v>30</v>
       </c>
@@ -3931,7 +3875,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:19">
       <c r="B115" t="s">
         <v>30</v>
       </c>
@@ -3954,7 +3898,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:19">
       <c r="B116" t="s">
         <v>30</v>
       </c>
@@ -3977,7 +3921,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:19">
       <c r="B117" t="s">
         <v>31</v>
       </c>
@@ -4003,7 +3947,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:19">
       <c r="B118" t="s">
         <v>31</v>
       </c>
@@ -4029,7 +3973,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:19">
       <c r="B119" t="s">
         <v>31</v>
       </c>
@@ -4052,7 +3996,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:19">
       <c r="B120" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4019,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:19">
       <c r="B121" t="s">
         <v>31</v>
       </c>
@@ -4098,7 +4042,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:19">
       <c r="B122" t="s">
         <v>31</v>
       </c>
@@ -4121,7 +4065,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:19">
       <c r="B123" t="s">
         <v>31</v>
       </c>
@@ -4147,7 +4091,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:19">
       <c r="B124" t="s">
         <v>32</v>
       </c>
@@ -4170,7 +4114,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:19">
       <c r="B125" t="s">
         <v>32</v>
       </c>
@@ -4193,7 +4137,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:19">
       <c r="B126" t="s">
         <v>32</v>
       </c>
@@ -4219,7 +4163,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:19">
       <c r="B127" t="s">
         <v>32</v>
       </c>
@@ -4245,7 +4189,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:19">
       <c r="B128" t="s">
         <v>32</v>
       </c>
@@ -4268,7 +4212,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:19">
       <c r="B129" t="s">
         <v>32</v>
       </c>
@@ -4291,7 +4235,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:19">
       <c r="B130" t="s">
         <v>32</v>
       </c>
@@ -4314,7 +4258,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="131" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:19">
       <c r="B131" t="s">
         <v>33</v>
       </c>
@@ -4337,7 +4281,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="132" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:19">
       <c r="B132" t="s">
         <v>33</v>
       </c>
@@ -4360,7 +4304,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:19">
       <c r="B133" t="s">
         <v>33</v>
       </c>
@@ -4383,7 +4327,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:19">
       <c r="B134" t="s">
         <v>33</v>
       </c>
@@ -4406,7 +4350,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:19">
       <c r="B135" t="s">
         <v>33</v>
       </c>
@@ -4432,7 +4376,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:19">
       <c r="B136" t="s">
         <v>33</v>
       </c>
@@ -4458,7 +4402,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:19">
       <c r="B137" t="s">
         <v>33</v>
       </c>
@@ -4481,7 +4425,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:19">
       <c r="B138" t="s">
         <v>34</v>
       </c>
@@ -4507,7 +4451,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:19">
       <c r="B139" t="s">
         <v>34</v>
       </c>
@@ -4530,7 +4474,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:19">
       <c r="B140" t="s">
         <v>34</v>
       </c>
@@ -4553,7 +4497,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:19">
       <c r="B141" t="s">
         <v>34</v>
       </c>
@@ -4576,7 +4520,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="142" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:19">
       <c r="B142" t="s">
         <v>34</v>
       </c>
@@ -4599,7 +4543,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:19">
       <c r="B143" t="s">
         <v>34</v>
       </c>
@@ -4622,7 +4566,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:19">
       <c r="B144" t="s">
         <v>34</v>
       </c>
@@ -4648,7 +4592,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:19">
       <c r="B145" t="s">
         <v>35</v>
       </c>
@@ -4671,7 +4615,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:19">
       <c r="B146" t="s">
         <v>35</v>
       </c>
@@ -4694,7 +4638,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="147" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:19">
       <c r="B147" t="s">
         <v>35</v>
       </c>
@@ -4717,7 +4661,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="148" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:19">
       <c r="B148" t="s">
         <v>35</v>
       </c>
@@ -4740,7 +4684,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="149" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:19">
       <c r="B149" t="s">
         <v>35</v>
       </c>
@@ -4763,7 +4707,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:19">
       <c r="B150" t="s">
         <v>35</v>
       </c>
@@ -4786,7 +4730,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="151" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:19">
       <c r="B151" t="s">
         <v>35</v>
       </c>
@@ -4812,7 +4756,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="152" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:19">
       <c r="B152" t="s">
         <v>35</v>
       </c>
@@ -4835,7 +4779,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="153" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:19">
       <c r="B153" t="s">
         <v>36</v>
       </c>
@@ -4861,7 +4805,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:19">
       <c r="B154" t="s">
         <v>36</v>
       </c>
@@ -4884,7 +4828,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:19">
       <c r="B155" t="s">
         <v>36</v>
       </c>
@@ -4910,7 +4854,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:19">
       <c r="B156" t="s">
         <v>36</v>
       </c>
@@ -4936,7 +4880,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:19">
       <c r="B157" t="s">
         <v>36</v>
       </c>
@@ -4962,7 +4906,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:19">
       <c r="B158" t="s">
         <v>36</v>
       </c>
@@ -4988,7 +4932,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:19">
       <c r="B159" t="s">
         <v>37</v>
       </c>
@@ -5011,7 +4955,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:19">
       <c r="B160" t="s">
         <v>37</v>
       </c>
@@ -5034,7 +4978,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:19">
       <c r="B161" t="s">
         <v>37</v>
       </c>
@@ -5057,7 +5001,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="162" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:19">
       <c r="B162" t="s">
         <v>37</v>
       </c>
@@ -5080,7 +5024,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:19">
       <c r="B163" t="s">
         <v>37</v>
       </c>
@@ -5103,7 +5047,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="164" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:19">
       <c r="B164" t="s">
         <v>37</v>
       </c>
@@ -5126,7 +5070,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="165" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:19">
       <c r="B165" t="s">
         <v>37</v>
       </c>
@@ -5155,17 +5099,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9af2e30293fc1ae2c5718fcac55aaadf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd728ddf0b116993a82566dab177cb1d" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
     <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
     <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
     <xsd:element name="properties">
@@ -5188,6 +5123,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5258,6 +5194,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
@@ -5400,29 +5341,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE758E4-BB8A-4A79-ABBB-7D9987F0D43E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1617421D-CAED-4DCE-ADE4-08445BF095F7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD83EA8-580D-4D21-A5FA-F806A51DEE07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <ds:schemaRef ds:uri="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B452ECCE-A12D-431C-BAAE-17095D2D9C31}"/>
 </file>